--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H2">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N2">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q2">
-        <v>714.2684249121113</v>
+        <v>1012.521582360104</v>
       </c>
       <c r="R2">
-        <v>6428.415824209002</v>
+        <v>9112.694241240933</v>
       </c>
       <c r="S2">
-        <v>0.09060739550976393</v>
+        <v>0.09374690991142266</v>
       </c>
       <c r="T2">
-        <v>0.09060739550976393</v>
+        <v>0.09374690991142265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H3">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q3">
-        <v>547.048043058559</v>
+        <v>490.6242325766012</v>
       </c>
       <c r="R3">
-        <v>4923.43238752703</v>
+        <v>4415.618093189411</v>
       </c>
       <c r="S3">
-        <v>0.069394917472865</v>
+        <v>0.04542570403735014</v>
       </c>
       <c r="T3">
-        <v>0.06939491747286498</v>
+        <v>0.04542570403735013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H4">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N4">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q4">
-        <v>362.3164765771721</v>
+        <v>589.4616670836491</v>
       </c>
       <c r="R4">
-        <v>3260.848289194548</v>
+        <v>5305.155003752842</v>
       </c>
       <c r="S4">
-        <v>0.04596108570383944</v>
+        <v>0.05457682163329389</v>
       </c>
       <c r="T4">
-        <v>0.04596108570383944</v>
+        <v>0.05457682163329389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H5">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I5">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J5">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N5">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q5">
-        <v>481.4107776924969</v>
+        <v>418.3998226281017</v>
       </c>
       <c r="R5">
-        <v>4332.696999232472</v>
+        <v>3765.598403652915</v>
       </c>
       <c r="S5">
-        <v>0.06106860560497877</v>
+        <v>0.03873862163752077</v>
       </c>
       <c r="T5">
-        <v>0.06106860560497875</v>
+        <v>0.03873862163752075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>190.071975</v>
       </c>
       <c r="I6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N6">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q6">
-        <v>813.52870748795</v>
+        <v>1285.855580166767</v>
       </c>
       <c r="R6">
-        <v>7321.758367391551</v>
+        <v>11572.7002215009</v>
       </c>
       <c r="S6">
-        <v>0.1031989022431977</v>
+        <v>0.1190542397644637</v>
       </c>
       <c r="T6">
-        <v>0.1031989022431977</v>
+        <v>0.1190542397644637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>190.071975</v>
       </c>
       <c r="I7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P7">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q7">
         <v>623.0700838525834</v>
@@ -883,10 +883,10 @@
         <v>5607.630754673251</v>
       </c>
       <c r="S7">
-        <v>0.07903857366350671</v>
+        <v>0.05768854317483263</v>
       </c>
       <c r="T7">
-        <v>0.07903857366350668</v>
+        <v>0.05768854317483263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>190.071975</v>
       </c>
       <c r="I8">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J8">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N8">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q8">
-        <v>412.6667854983</v>
+        <v>748.5890544151833</v>
       </c>
       <c r="R8">
-        <v>3714.001069484701</v>
+        <v>6737.301489736649</v>
       </c>
       <c r="S8">
-        <v>0.05234819480083865</v>
+        <v>0.0693100392797143</v>
       </c>
       <c r="T8">
-        <v>0.05234819480083864</v>
+        <v>0.0693100392797143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>190.071975</v>
       </c>
       <c r="I9">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J9">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N9">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O9">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P9">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q9">
-        <v>548.3113547895334</v>
+        <v>531.348423618875</v>
       </c>
       <c r="R9">
-        <v>4934.8021931058</v>
+        <v>4782.135812569875</v>
       </c>
       <c r="S9">
-        <v>0.06955517289179187</v>
+        <v>0.04919625780664038</v>
       </c>
       <c r="T9">
-        <v>0.06955517289179185</v>
+        <v>0.04919625780664037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H10">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N10">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q10">
-        <v>470.8841074052361</v>
+        <v>1062.95630289503</v>
       </c>
       <c r="R10">
-        <v>4237.956966647124</v>
+        <v>9566.606726055274</v>
       </c>
       <c r="S10">
-        <v>0.05973326143344257</v>
+        <v>0.09841653798134956</v>
       </c>
       <c r="T10">
-        <v>0.05973326143344257</v>
+        <v>0.09841653798134956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H11">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I11">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J11">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P11">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q11">
-        <v>360.6434506678734</v>
+        <v>515.0627200999845</v>
       </c>
       <c r="R11">
-        <v>3245.791056010861</v>
+        <v>4635.56448089986</v>
       </c>
       <c r="S11">
-        <v>0.04574885663844214</v>
+        <v>0.04768840413988606</v>
       </c>
       <c r="T11">
-        <v>0.04574885663844213</v>
+        <v>0.04768840413988606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H12">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I12">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J12">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N12">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q12">
-        <v>238.8584805386641</v>
+        <v>618.8233468377923</v>
       </c>
       <c r="R12">
-        <v>2149.726324847977</v>
+        <v>5569.410121540132</v>
       </c>
       <c r="S12">
-        <v>0.03030001615945857</v>
+        <v>0.05729534812666869</v>
       </c>
       <c r="T12">
-        <v>0.03030001615945857</v>
+        <v>0.05729534812666869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H13">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I13">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J13">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N13">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O13">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P13">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q13">
-        <v>317.3718401130294</v>
+        <v>439.2407394971767</v>
       </c>
       <c r="R13">
-        <v>2856.346561017264</v>
+        <v>3953.16665547459</v>
       </c>
       <c r="S13">
-        <v>0.04025970466820117</v>
+        <v>0.0406682314258302</v>
       </c>
       <c r="T13">
-        <v>0.04025970466820116</v>
+        <v>0.0406682314258302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H14">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I14">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J14">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N14">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q14">
-        <v>676.1607770060514</v>
+        <v>993.8217819883622</v>
       </c>
       <c r="R14">
-        <v>6085.446993054463</v>
+        <v>8944.396037895262</v>
       </c>
       <c r="S14">
-        <v>0.08577330988404688</v>
+        <v>0.09201554089040385</v>
       </c>
       <c r="T14">
-        <v>0.08577330988404688</v>
+        <v>0.09201554089040384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H15">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I15">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J15">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P15">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q15">
-        <v>517.861936707659</v>
+        <v>481.5631168763945</v>
       </c>
       <c r="R15">
-        <v>4660.757430368931</v>
+        <v>4334.068051887551</v>
       </c>
       <c r="S15">
-        <v>0.06569255994270899</v>
+        <v>0.04458675737977445</v>
       </c>
       <c r="T15">
-        <v>0.06569255994270898</v>
+        <v>0.04458675737977445</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H16">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I16">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J16">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N16">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q16">
-        <v>342.9861684767321</v>
+        <v>578.5751677800343</v>
       </c>
       <c r="R16">
-        <v>3086.875516290589</v>
+        <v>5207.17651002031</v>
       </c>
       <c r="S16">
-        <v>0.0435089699301404</v>
+        <v>0.0535688671489185</v>
       </c>
       <c r="T16">
-        <v>0.0435089699301404</v>
+        <v>0.05356886714891849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H17">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I17">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J17">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N17">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O17">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P17">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q17">
-        <v>455.726550622337</v>
+        <v>410.6725866905917</v>
       </c>
       <c r="R17">
-        <v>4101.538955601032</v>
+        <v>3696.053280215325</v>
       </c>
       <c r="S17">
-        <v>0.05781047345277714</v>
+        <v>0.03802317566193027</v>
       </c>
       <c r="T17">
-        <v>0.05781047345277712</v>
+        <v>0.03802317566193025</v>
       </c>
     </row>
   </sheetData>
